--- a/biology/Médecine/Glabelle/Glabelle.xlsx
+++ b/biology/Médecine/Glabelle/Glabelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La glabelle (ou bosse frontale moyenne) est l'éminence osseuse située sur la face externe de l'écaille frontale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La glabelle forme une éminence large, mousse et arquée concave en haut.
 Elle est située entre les deux arcades sourcilières juste au-dessus du bord nasal de l'os frontal.
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Réflexe glabellaire
-Le réflexe glabellaire est déclenché chez le nourrisson lorsque l'on touche la glabelle : il provoque la fermeture des yeux.
+          <t>Réflexe glabellaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le réflexe glabellaire est déclenché chez le nourrisson lorsque l'on touche la glabelle : il provoque la fermeture des yeux.
 </t>
         </is>
       </c>
@@ -576,9 +595,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme est dérivé du latin glabellus, signifiant « sans poil »[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme est dérivé du latin glabellus, signifiant « sans poil ».
 </t>
         </is>
       </c>
